--- a/biology/Botanique/Drypetes_ituriensis/Drypetes_ituriensis.xlsx
+++ b/biology/Botanique/Drypetes_ituriensis/Drypetes_ituriensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drypetes ituriensis  (ou gongo[3]) est une espèce de plantes à fleurs de la famille des Putranjivaceae, du genre Drypetes[4]. Drypetes ituriensis var. pilosa est endémique du Cameroun.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drypetes ituriensis  (ou gongo) est une espèce de plantes à fleurs de la famille des Putranjivaceae, du genre Drypetes. Drypetes ituriensis var. pilosa est endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique ituriensis fait référence à la forêt de l'Ituri, au nord-est de la République démocratique du Congo.
 </t>
@@ -542,15 +556,17 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (19 septembre 2017)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (19 septembre 2017) :
 variété Drypetes ituriensis var. ituriensis
 variété Drypetes ituriensis var. pilosa Pax &amp; K.Hoffm.
-Selon World Checklist of Selected Plant Families (WCSP)  (19 septembre 2017)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (19 septembre 2017) :
 variété Drypetes ituriensis var. ituriensis
 variété Drypetes ituriensis var. pilosa Pax &amp; K.Hoffm. (1922)
-Selon Tropicos                                           (19 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (19 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Drypetes ituriensis var. ituriensis
 variété Drypetes ituriensis var. pilosa Pax &amp; K. Hoffm.</t>
         </is>
